--- a/eslearn/GUI/test/cov1.xlsx
+++ b/eslearn/GUI/test/cov1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Codes\easylearn\eslearn\GUI\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DD4E25-70C5-4254-9D15-D3E5749692A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FEF37-D5FC-446A-9E9C-6798787B32BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,43 @@
   </si>
   <si>
     <t>v5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub001</t>
+  </si>
+  <si>
+    <t>sub002</t>
+  </si>
+  <si>
+    <t>sub003</t>
+  </si>
+  <si>
+    <t>sub004</t>
+  </si>
+  <si>
+    <t>sub005</t>
+  </si>
+  <si>
+    <t>sub006</t>
+  </si>
+  <si>
+    <t>sub007</t>
+  </si>
+  <si>
+    <t>sub008</t>
+  </si>
+  <si>
+    <t>sub009</t>
+  </si>
+  <si>
+    <t>sub010</t>
+  </si>
+  <si>
+    <t>sub011</t>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,437 +406,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>-1.6372199999999999</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.96421199999999996</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.226074</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.31058599999999997</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.65202400000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>-0.32600600000000002</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-1.1378999999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.54849999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.38564</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.01525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>0.91370899999999999</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-0.39678200000000002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.19997500000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2.0193599999999998</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.6742300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>-0.70836100000000002</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.25715100000000002</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.3307899999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-2.1949100000000001</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.38878499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>0.14354900000000001</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.62118899999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.60992900000000005</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.29724299999999998</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.60343100000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>1.5702799999999999</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-1.37985</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-1.50546</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.63687800000000006</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.71752000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>-0.44434000000000001</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-1.56514</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-2.3431799999999998</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.17874999999999999</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-1.86168</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>-0.23395199999999999</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.41043000000000002</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.156413</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.60680999999999996</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-1.82325</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>0.81422700000000003</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.58064700000000002</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-7.3396799999999998E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.2046300000000001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.0252699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>0.81374400000000002</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-1.21245</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.47926</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.25195200000000001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-1.5539400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>1.14435</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>-0.57704699999999998</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.65325999999999995</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.354051</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.46750599999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.31078600000000001</v>
-      </c>
-      <c r="B13">
-        <v>0.56984299999999999</v>
-      </c>
-      <c r="C13">
-        <v>-0.91277200000000003</v>
-      </c>
-      <c r="D13">
-        <v>0.54644899999999996</v>
-      </c>
-      <c r="E13">
-        <v>1.2149700000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-1.0964</v>
-      </c>
-      <c r="B14">
-        <v>1.40137E-2</v>
-      </c>
-      <c r="C14">
-        <v>-0.658412</v>
-      </c>
-      <c r="D14">
-        <v>-0.244056</v>
-      </c>
-      <c r="E14">
-        <v>-0.69687699999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-1.2846299999999999</v>
-      </c>
-      <c r="B15">
-        <v>0.61227500000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.78839499999999996</v>
-      </c>
-      <c r="D15">
-        <v>-7.4823299999999995E-2</v>
-      </c>
-      <c r="E15">
-        <v>-0.35833599999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.2624599999999999</v>
-      </c>
-      <c r="B16">
-        <v>1.5062500000000001</v>
-      </c>
-      <c r="C16">
-        <v>-0.68339899999999998</v>
-      </c>
-      <c r="D16">
-        <v>-3.0507</v>
-      </c>
-      <c r="E16">
-        <v>0.94482999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2.5457000000000001</v>
-      </c>
-      <c r="B17">
-        <v>-0.18795200000000001</v>
-      </c>
-      <c r="C17">
-        <v>-0.80713800000000002</v>
-      </c>
-      <c r="D17">
-        <v>-0.27557199999999998</v>
-      </c>
-      <c r="E17">
-        <v>1.0162199999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-0.19911799999999999</v>
-      </c>
-      <c r="B18">
-        <v>-0.42138900000000001</v>
-      </c>
-      <c r="C18">
-        <v>1.8503499999999999</v>
-      </c>
-      <c r="D18">
-        <v>1.4882899999999999</v>
-      </c>
-      <c r="E18">
-        <v>-0.64736800000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>-1.2567999999999999</v>
-      </c>
-      <c r="B19">
-        <v>-1.7463900000000001</v>
-      </c>
-      <c r="C19">
-        <v>1.3234600000000001</v>
-      </c>
-      <c r="D19">
-        <v>-1.0305599999999999</v>
-      </c>
-      <c r="E19">
-        <v>-0.40616400000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-0.368705</v>
-      </c>
-      <c r="B20">
-        <v>1.8992899999999999</v>
-      </c>
-      <c r="C20">
-        <v>1.3920999999999999</v>
-      </c>
-      <c r="D20">
-        <v>-0.70261399999999996</v>
-      </c>
-      <c r="E20">
-        <v>-1.6149199999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-0.72309100000000004</v>
-      </c>
-      <c r="B21">
-        <v>0.18899099999999999</v>
-      </c>
-      <c r="C21">
-        <v>-8.02019E-3</v>
-      </c>
-      <c r="D21">
-        <v>-1.0260100000000001</v>
-      </c>
-      <c r="E21">
-        <v>1.66509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>-1.2149000000000001</v>
-      </c>
-      <c r="B22">
-        <v>-0.468474</v>
-      </c>
-      <c r="C22">
-        <v>-0.46639599999999998</v>
-      </c>
-      <c r="D22">
-        <v>-0.76617100000000005</v>
-      </c>
-      <c r="E22">
-        <v>-0.71158299999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1.04372</v>
-      </c>
-      <c r="B23">
-        <v>-0.76300100000000004</v>
-      </c>
-      <c r="C23">
-        <v>0.66228900000000002</v>
-      </c>
-      <c r="D23">
-        <v>1.02938</v>
-      </c>
-      <c r="E23">
-        <v>-1.4267799999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.74351599999999995</v>
-      </c>
-      <c r="B24">
-        <v>-0.67505599999999999</v>
-      </c>
-      <c r="C24">
-        <v>1.9027400000000001</v>
-      </c>
-      <c r="D24">
-        <v>2.4032100000000001</v>
-      </c>
-      <c r="E24">
-        <v>-0.17805000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1.0675600000000001</v>
-      </c>
-      <c r="B25">
-        <v>1.57403</v>
-      </c>
-      <c r="C25">
-        <v>-0.57794999999999996</v>
-      </c>
-      <c r="D25">
-        <v>1.6815500000000001</v>
-      </c>
-      <c r="E25">
-        <v>1.4250100000000001</v>
       </c>
     </row>
   </sheetData>
